--- a/src/main/resources/form/project_upload_form.xlsx
+++ b/src/main/resources/form/project_upload_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesjuhee/Dev/SCG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesjuhee/Dev/SCG/s-top-backend/src/main/resources/form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E2BA96-45DF-9141-A882-31F11D1C1FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F109C72-5DE4-1C49-9B2A-ACD5B4318D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29400" yWindow="3220" windowWidth="29400" windowHeight="18380" xr2:uid="{08D1CA77-C814-304A-98E6-8F4DBCE661B2}"/>
+    <workbookView xWindow="1740" yWindow="10340" windowWidth="51200" windowHeight="28300" xr2:uid="{08D1CA77-C814-304A-98E6-8F4DBCE661B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유튜브 링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웹사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +83,89 @@
   </si>
   <si>
     <t>포스터 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터비전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀이름1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생1, 학생2, 학생3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcGceBjYY8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://skku.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 설명입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbnail1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poster1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고 (등록 시 참고 내용은 전부 삭제해주세요)</t>
+  </si>
+  <si>
+    <t>[ 산학 | 창업/SPARK | 동아리 ] 택1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 컴퓨터비전 | 시스템/네트워크 | 웹/어플리케이션 | 보안/SW공학 | 자연어처리 | 빅데이터분석 | AI/머신러닝 | 인터렉션/증강현실 ] 택 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름을 쉼표로 구분하여 입력해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자만 입력해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 없음 | 대상 | 최우수상 | 우수상 | 장려상 | 인기상 ] 택 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 썸네일 이미지 이름은 사용할 수 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 포스터 이미지 이름은 사용할 수 없습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,13 +189,44 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,18 +238,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8247E34-25F7-8B4C-B6FC-9D10AD9FD008}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -486,48 +612,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>2024</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
+      <c r="B14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{52CA3415-D70E-C64E-8CC9-64630241452B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>